--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban23/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EF3E3-F1FF-2243-BD50-76DCBABC2055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897DBEE-57C8-AA49-8538-70AF6291FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="-26660" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="-20360" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
   <si>
     <t>address</t>
   </si>
@@ -764,6 +764,42 @@
   </si>
   <si>
     <t>桃園市龜山區文化一路250號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>初拾采耳</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>L011</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-011-01.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-011-02.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%88%9D%E6%8B%BE%E9%87%87%E8%80%B3+True+Shih+Ears+%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%BA%97/@25.0597441,121.3619268,18z/data=!4m6!3m5!1s0x3442a71d91c69b47:0x11abb5b8ef241161!8m2!3d25.0597441!4d121.3630211!16s%2Fg%2F11kshfl9zh?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文二三街8號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 21:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@154evpfc?oat_content=url</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trueshihears.com.tw/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2064,13 +2100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2603,6 +2639,44 @@
         <v>148</v>
       </c>
     </row>
+    <row r="12" spans="1:27" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2632,6 +2706,9 @@
     <hyperlink ref="M10" r:id="rId19" xr:uid="{AD52DACA-B0B5-AC49-90FF-CA335BAF490B}"/>
     <hyperlink ref="K11" r:id="rId20" xr:uid="{2B3965E0-797D-2243-B5C2-E3AF0615C038}"/>
     <hyperlink ref="J11" r:id="rId21" xr:uid="{7388F00E-1A8D-C34B-838B-68719F2E130C}"/>
+    <hyperlink ref="X12" r:id="rId22" display="https://www.google.com/maps/place/%E5%88%9D%E6%8B%BE%E9%87%87%E8%80%B3+True+Shih+Ears+%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%BA%97/@25.0597441,121.3619268,18z/data=!4m6!3m5!1s0x3442a71d91c69b47:0x11abb5b8ef241161!8m2!3d25.0597441!4d121.3630211!16s%2Fg%2F11kshfl9zh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{524ED37B-51C2-D940-81C1-F35EC5E24A10}"/>
+    <hyperlink ref="K12" r:id="rId23" xr:uid="{07623390-F612-0B4D-B1EB-FC75F925F85D}"/>
+    <hyperlink ref="I12" r:id="rId24" xr:uid="{2165E3B5-125A-A142-8CC0-CC3A0201AE53}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897DBEE-57C8-AA49-8538-70AF6291FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECED4E-5004-6A49-B9BE-F6EDF4B27731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="-20360" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="-25200" windowWidth="46140" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="175">
   <si>
     <t>address</t>
   </si>
@@ -800,6 +800,196 @@
   </si>
   <si>
     <t>https://trueshihears.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>L012</t>
+  </si>
+  <si>
+    <t>L013</t>
+  </si>
+  <si>
+    <t>LOC-012-01.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-013-01.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-012-02.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC-013-02.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>菈彼兒童體操館</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文興路211號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-4547</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1951117865015671/user/100063552147299</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/%40084czuye</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>林口龜山網球課程</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1951117865015671/permalink/6933420103452064/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/2448275045469406/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>優惠期限：2/14~2/29 &lt;br&gt;
+新學期即將來臨，為何不讓您的孩子嘗試一下體操呢？體操不僅是一項有趣的運動，更是孩子們健康成長的重要一環。
+&lt;ul&gt;
+&lt;li&gt;全身運動： 
+體操是一項全身性的運動，能夠促進肌肉發展、提升柔韌性和協調性，同時增強核心肌群。&lt;/li&gt;
+&lt;li&gt;提升自信：
+ 學習體操需要勇氣和毅力，克服困難後的成就感將有助於增強孩子的自信心。&lt;/li&gt;
+&lt;li&gt;促進認知發展：
+體操動作需要精確的空間感知和視覺能力，有助於促進孩子的認知發展和專注力。&lt;/li&gt;
+&lt;li&gt;社交互動：
+參加體操課程可以與其他孩子建立友誼，培養合作和團隊精神。&lt;/li&gt;
+&lt;li&gt;增強耐心和毅力：
+學習體操需要耐心和毅力，這些品質在孩子的成長過程中至關重要。&lt;/li&gt;
+&lt;/ul&gt;
+快來加入我們的體操課程，讓您的孩子在新學期中充滿活力和自信！&lt;br&gt;
+Line 官方預約帳號：@084czuye &lt;br&gt;
+聯絡電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>📞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：03-3184547&lt;br&gt;
+場館地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：桃園市龜山區文興路211號一樓&lt;br&gt;
+詳情或相關資訊可至官方Line帳號詢問</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;
+揮灑龍年，挑戰自我，成就無限可能！ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 你還沒學過網球嗎?覺得學習網球很困難嗎? 這正是我們課程的重點！我們了解新手可能面臨的挑戰，特別設計了專屬給網球小白的高CP值速成課。透過這個課程，您將不僅學到正確的動作，更能感受到技巧的進步，信心倍增。
+無論你是從零開始，還是有些經驗但感覺動作還不夠到位，在這裡，我們透過紀錄你的學習過程，了解自己的進步軌跡，並且通過專業指導幫助你克服困難，找到最有效的技巧和動作，讓你的技術得到提升，同時增加信心。&lt;/p&gt;
+&lt;p&gt;課程結合了專業指導和漸進式教學，讓你在短時間內掌握網球的精髓，無論你是想享受運動的樂趣，還是渴望在球場上展現自己的技藝。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t>立即報名!在新的一年讓網球成為你的激情！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">✨
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;h3&gt;成人網球團體班第八期&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;地點：國立體育大學室外網球場&lt;/li&gt;
+&lt;li&gt;日期： 3/4、3/11、3/18、3/25、4/1&lt;/li&gt;
+&lt;li&gt;時間：每週一20:00-21:00&lt;/li&gt;
+&lt;li&gt;費用：早鳥價2300/5堂(2/18前報名)&lt;/li&gt;
+&lt;li&gt;原價 2600/5堂&lt;/li&gt;
+&lt;li&gt;可單堂上課喔!580/一堂&lt;/li&gt;
+&lt;li&gt;報名表單：https://forms.gle/zTGctKUYdyXRWkVj9&lt;/li&gt;
+&lt;li&gt;報名截止：2/23中午12:00&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2100,13 +2290,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2677,6 +2867,76 @@
         <v>154</v>
       </c>
     </row>
+    <row r="13" spans="1:27" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2709,6 +2969,10 @@
     <hyperlink ref="X12" r:id="rId22" display="https://www.google.com/maps/place/%E5%88%9D%E6%8B%BE%E9%87%87%E8%80%B3+True+Shih+Ears+%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%BA%97/@25.0597441,121.3619268,18z/data=!4m6!3m5!1s0x3442a71d91c69b47:0x11abb5b8ef241161!8m2!3d25.0597441!4d121.3630211!16s%2Fg%2F11kshfl9zh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{524ED37B-51C2-D940-81C1-F35EC5E24A10}"/>
     <hyperlink ref="K12" r:id="rId23" xr:uid="{07623390-F612-0B4D-B1EB-FC75F925F85D}"/>
     <hyperlink ref="I12" r:id="rId24" xr:uid="{2165E3B5-125A-A142-8CC0-CC3A0201AE53}"/>
+    <hyperlink ref="J13" r:id="rId25" xr:uid="{8C75BB41-7FD1-A14C-A583-A2FC951A0A02}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{37EAE5B0-1CFA-184E-9CDA-4E0DD2A1DD2D}"/>
+    <hyperlink ref="I14" r:id="rId27" xr:uid="{CC3FF2EC-001F-8F4F-8EFF-A701893FC43B}"/>
+    <hyperlink ref="J14" r:id="rId28" xr:uid="{DA72A3DB-E46B-CD48-B5A0-3A58B23BABCD}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
